--- a/outputs/excel/tela3_params.xlsx
+++ b/outputs/excel/tela3_params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="304">
   <si>
     <t>Code</t>
   </si>
@@ -31,9 +31,30 @@
     <t>010A</t>
   </si>
   <si>
+    <t>0005</t>
+  </si>
+  <si>
     <t>0104</t>
   </si>
   <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
     <t>0120</t>
   </si>
   <si>
@@ -46,6 +67,27 @@
     <t>0123</t>
   </si>
   <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
     <t>0202</t>
   </si>
   <si>
@@ -61,42 +103,108 @@
     <t>0206</t>
   </si>
   <si>
+    <t>0208</t>
+  </si>
+  <si>
     <t>0209</t>
   </si>
   <si>
+    <t>020A</t>
+  </si>
+  <si>
     <t>020B</t>
   </si>
   <si>
+    <t>0210</t>
+  </si>
+  <si>
     <t>0211</t>
   </si>
   <si>
     <t>0212</t>
   </si>
   <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
     <t>0224</t>
   </si>
   <si>
     <t>0225</t>
   </si>
   <si>
+    <t>0230</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
     <t>0232</t>
   </si>
   <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
     <t>0241</t>
   </si>
   <si>
     <t>0242</t>
   </si>
   <si>
+    <t>0244</t>
+  </si>
+  <si>
     <t>0245</t>
   </si>
   <si>
+    <t>0246</t>
+  </si>
+  <si>
     <t>0247</t>
   </si>
   <si>
+    <t>0248</t>
+  </si>
+  <si>
+    <t>0250</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>0333</t>
+  </si>
+  <si>
+    <t>0340</t>
+  </si>
+  <si>
+    <t>0344</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>01D3</t>
+  </si>
+  <si>
     <t>01D4</t>
   </si>
   <si>
@@ -109,6 +217,12 @@
     <t>01D7</t>
   </si>
   <si>
+    <t>01D8</t>
+  </si>
+  <si>
+    <t>01DA</t>
+  </si>
+  <si>
     <t>0160</t>
   </si>
   <si>
@@ -130,6 +244,72 @@
     <t>01EB</t>
   </si>
   <si>
+    <t>01A0</t>
+  </si>
+  <si>
+    <t>01A1</t>
+  </si>
+  <si>
+    <t>01A2</t>
+  </si>
+  <si>
+    <t>01A7</t>
+  </si>
+  <si>
+    <t>01A8</t>
+  </si>
+  <si>
+    <t>01A3</t>
+  </si>
+  <si>
+    <t>01A4</t>
+  </si>
+  <si>
+    <t>01A5</t>
+  </si>
+  <si>
+    <t>01A6</t>
+  </si>
+  <si>
+    <t>01A9</t>
+  </si>
+  <si>
+    <t>01AA</t>
+  </si>
+  <si>
+    <t>01AB</t>
+  </si>
+  <si>
+    <t>01AC</t>
+  </si>
+  <si>
+    <t>01AD</t>
+  </si>
+  <si>
+    <t>01AE</t>
+  </si>
+  <si>
+    <t>01AF</t>
+  </si>
+  <si>
+    <t>01B0</t>
+  </si>
+  <si>
+    <t>01BF</t>
+  </si>
+  <si>
+    <t>01C0</t>
+  </si>
+  <si>
+    <t>01C2</t>
+  </si>
+  <si>
+    <t>01C3</t>
+  </si>
+  <si>
+    <t>01C1</t>
+  </si>
+  <si>
     <t>01F0</t>
   </si>
   <si>
@@ -154,15 +334,141 @@
     <t>01F7</t>
   </si>
   <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>017A</t>
+  </si>
+  <si>
+    <t>017B</t>
+  </si>
+  <si>
+    <t>017C</t>
+  </si>
+  <si>
+    <t>017D</t>
+  </si>
+  <si>
+    <t>017E</t>
+  </si>
+  <si>
+    <t>017F</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>018F</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>019D</t>
+  </si>
+  <si>
+    <t>019E</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>019A</t>
+  </si>
+  <si>
+    <t>019B</t>
+  </si>
+  <si>
+    <t>019C</t>
+  </si>
+  <si>
+    <t>016F</t>
+  </si>
+  <si>
+    <t>01D0</t>
+  </si>
+  <si>
+    <t>01D1</t>
+  </si>
+  <si>
+    <t>01D2</t>
+  </si>
+  <si>
+    <t>01DC</t>
+  </si>
+  <si>
+    <t>01DE</t>
+  </si>
+  <si>
     <t>01DF</t>
   </si>
   <si>
+    <t>01E0</t>
+  </si>
+  <si>
     <t>01E3</t>
   </si>
   <si>
     <t>01E4</t>
   </si>
   <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>010C</t>
+  </si>
+  <si>
     <t>01E7</t>
   </si>
   <si>
@@ -178,9 +484,30 @@
     <t>REFERENCE</t>
   </si>
   <si>
+    <t>SOFTWARE VERSION</t>
+  </si>
+  <si>
     <t>FREQUENCY</t>
   </si>
   <si>
+    <t>Change Group Input</t>
+  </si>
+  <si>
+    <t>SETTING GROUP</t>
+  </si>
+  <si>
+    <t>DEFAULT DISPLAY</t>
+  </si>
+  <si>
+    <t>START DETECTION</t>
+  </si>
+  <si>
+    <t>ANALOG OUTPUT</t>
+  </si>
+  <si>
+    <t>DATA TYPE ANALOG</t>
+  </si>
+  <si>
     <t>PRIM PH</t>
   </si>
   <si>
@@ -193,6 +520,27 @@
     <t>SEC E</t>
   </si>
   <si>
+    <t>LED 5</t>
+  </si>
+  <si>
+    <t>LED 6</t>
+  </si>
+  <si>
+    <t>LED 7</t>
+  </si>
+  <si>
+    <t>LED 8</t>
+  </si>
+  <si>
+    <t>Pulse up</t>
+  </si>
+  <si>
+    <t>THERMAL OVERLOAD FUNCT ?</t>
+  </si>
+  <si>
+    <t>teta INHIBIT ?</t>
+  </si>
+  <si>
     <t>Iteta&gt;</t>
   </si>
   <si>
@@ -208,42 +556,81 @@
     <t>Tr</t>
   </si>
   <si>
+    <t>teta ALARM ?</t>
+  </si>
+  <si>
     <t>teta ALARM</t>
   </si>
   <si>
+    <t>teta FORBID START ?</t>
+  </si>
+  <si>
     <t>teta FORBID START</t>
   </si>
   <si>
+    <t>I&gt;&gt; FUNCTION ?</t>
+  </si>
+  <si>
     <t>I&gt;&gt;</t>
   </si>
   <si>
     <t>tI&gt;&gt;</t>
   </si>
   <si>
+    <t>I0&gt; FUNCTION ?</t>
+  </si>
+  <si>
+    <t>I0&gt;&gt; FUNCTION ?</t>
+  </si>
+  <si>
     <t>I0&gt;&gt;</t>
   </si>
   <si>
     <t>tI0&gt;&gt;</t>
   </si>
   <si>
+    <t>I2&gt; FUNCTION ?</t>
+  </si>
+  <si>
     <t>I2&gt;</t>
   </si>
   <si>
     <t>tI2&gt;</t>
   </si>
   <si>
+    <t>I2&gt;&gt; FUNCTION</t>
+  </si>
+  <si>
+    <t>EXCES LONG START FUNCT ?</t>
+  </si>
+  <si>
     <t>Istart DETECTION</t>
   </si>
   <si>
     <t>tIstart</t>
   </si>
   <si>
+    <t>BLOCKED ROTOR FUNCT ?</t>
+  </si>
+  <si>
     <t>tIstall</t>
   </si>
   <si>
+    <t>STALLED ROTOR ?</t>
+  </si>
+  <si>
     <t>Istall DETECTION</t>
   </si>
   <si>
+    <t>LOCK ROTOR AT START ?</t>
+  </si>
+  <si>
+    <t>I&lt; FUNCTION ?</t>
+  </si>
+  <si>
+    <t>START NB LIMITAT FUNCT ?</t>
+  </si>
+  <si>
     <t>Treference</t>
   </si>
   <si>
@@ -256,6 +643,12 @@
     <t>Tinterdiction</t>
   </si>
   <si>
+    <t>TIME BETW START FUNCT ?</t>
+  </si>
+  <si>
+    <t>REACCEL AUTHORIZ FUNCT ?</t>
+  </si>
+  <si>
     <t>INPUT 3</t>
   </si>
   <si>
@@ -277,6 +670,39 @@
     <t>EXT 4</t>
   </si>
   <si>
+    <t>THERM OV.</t>
+  </si>
+  <si>
+    <t>teta FORBID. START</t>
+  </si>
+  <si>
+    <t>I0&gt;</t>
+  </si>
+  <si>
+    <t>tI0&gt;</t>
+  </si>
+  <si>
+    <t>tI2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>EXCEX LG START</t>
+  </si>
+  <si>
+    <t>LOCKED ROTOR</t>
+  </si>
+  <si>
+    <t>tI&lt;</t>
+  </si>
+  <si>
+    <t>START NB LIMIT</t>
+  </si>
+  <si>
+    <t>Tbetw 2 start</t>
+  </si>
+  <si>
+    <t>SUCCESS START</t>
+  </si>
+  <si>
     <t>EQU. A Toperat</t>
   </si>
   <si>
@@ -301,15 +727,81 @@
     <t>EQU. D Treset</t>
   </si>
   <si>
+    <t>EXCES LG START</t>
+  </si>
+  <si>
+    <t>T betw 2 start</t>
+  </si>
+  <si>
+    <t>CLOSE ORDER</t>
+  </si>
+  <si>
+    <t>TRIP ORDER</t>
+  </si>
+  <si>
+    <t>ORDER 1</t>
+  </si>
+  <si>
+    <t>ORDER 2</t>
+  </si>
+  <si>
+    <t>t EQU.A</t>
+  </si>
+  <si>
+    <t>t EQU.B</t>
+  </si>
+  <si>
+    <t>t EQU.C</t>
+  </si>
+  <si>
+    <t>t EQU.D</t>
+  </si>
+  <si>
+    <t>SW OPER TIME</t>
+  </si>
+  <si>
+    <t>SW OPER NB</t>
+  </si>
+  <si>
+    <t>SAn</t>
+  </si>
+  <si>
+    <t>Active group</t>
+  </si>
+  <si>
+    <t>TRIP RLY SETTINGS</t>
+  </si>
+  <si>
+    <t>TRIP RLY SETTINGS 2</t>
+  </si>
+  <si>
+    <t>LATCH TRIP ORDER</t>
+  </si>
+  <si>
+    <t>SW OPERATING TIME ?</t>
+  </si>
+  <si>
+    <t>SW OPERATION NB ?</t>
+  </si>
+  <si>
     <t>SW OPERATION NB</t>
   </si>
   <si>
+    <t>SAn ?</t>
+  </si>
+  <si>
     <t>TRIP T</t>
   </si>
   <si>
     <t>CLOSE T</t>
   </si>
   <si>
+    <t>Latch</t>
+  </si>
+  <si>
+    <t>FAULT NUMBER</t>
+  </si>
+  <si>
     <t>PRE-TIME</t>
   </si>
   <si>
@@ -325,9 +817,27 @@
     <t>MF09</t>
   </si>
   <si>
+    <t>6.A</t>
+  </si>
+  <si>
     <t>60Hz</t>
   </si>
   <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>IB RMS</t>
+  </si>
+  <si>
+    <t>52A</t>
+  </si>
+  <si>
+    <t>4-20 mA</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -337,6 +847,15 @@
     <t>50</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>0.64In</t>
   </si>
   <si>
@@ -389,9 +908,6 @@
   </si>
   <si>
     <t>30mn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>0.0s</t>
@@ -767,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -800,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -811,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -833,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -844,10 +1360,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -855,10 +1371,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -866,10 +1382,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -877,10 +1393,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -888,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -899,10 +1415,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -910,10 +1426,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -921,10 +1437,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -932,10 +1448,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -943,10 +1459,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -954,10 +1470,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -965,10 +1478,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -976,10 +1489,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -987,10 +1497,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -998,10 +1505,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1009,10 +1516,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1020,10 +1527,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1031,10 +1538,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1042,10 +1549,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1053,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1064,10 +1571,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1075,10 +1582,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1086,10 +1593,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1097,10 +1604,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1108,10 +1615,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1119,10 +1626,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1130,10 +1637,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1141,10 +1648,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1152,10 +1659,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1163,10 +1670,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1174,10 +1681,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1185,10 +1692,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1196,10 +1703,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1207,10 +1714,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1218,10 +1725,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1229,10 +1736,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1240,10 +1747,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1251,10 +1758,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1262,10 +1769,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1273,10 +1780,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1284,10 +1791,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1295,10 +1802,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1306,10 +1813,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1317,10 +1824,1117 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
         <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>252</v>
+      </c>
+      <c r="C140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>259</v>
+      </c>
+      <c r="C147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>262</v>
+      </c>
+      <c r="C150" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>263</v>
+      </c>
+      <c r="C151" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
